--- a/data/stat probs/nassir little stat probs - condition.xlsx
+++ b/data/stat probs/nassir little stat probs - condition.xlsx
@@ -29,18 +29,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
@@ -577,28 +577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1571,16 +1571,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1893,28 +1893,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2887,28 +2887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3881,28 +3881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -4459,28 +4459,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -5037,28 +5037,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5615,28 +5615,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6771,28 +6771,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7349,28 +7349,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8343,28 +8343,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -9337,28 +9337,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10331,28 +10331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -11325,28 +11325,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -12256,7 +12256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12319,16 +12319,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12351,28 +12351,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -12383,28 +12383,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -12415,28 +12415,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -12447,795 +12447,27 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>78</v>
-      </c>
-      <c r="D7" t="n">
-        <v>22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>78</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>67</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>89</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>89</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>89</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>89</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" t="n">
-        <v>89</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>89</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>89</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>89</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11</v>
-      </c>
-      <c r="D27" t="n">
-        <v>89</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" t="n">
-        <v>89</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" t="n">
-        <v>89</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13250,7 +12482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13313,16 +12545,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13345,28 +12577,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -13377,28 +12609,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -13409,28 +12641,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -13441,795 +12673,27 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>78</v>
-      </c>
-      <c r="D7" t="n">
-        <v>22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>78</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>67</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>89</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>89</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
-        <v>89</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>89</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" t="n">
-        <v>89</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11</v>
-      </c>
-      <c r="D24" t="n">
-        <v>89</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>89</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>89</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11</v>
-      </c>
-      <c r="D27" t="n">
-        <v>89</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" t="n">
-        <v>89</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" t="n">
-        <v>89</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14307,28 +12771,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14339,10 +12803,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -14351,16 +12815,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -14371,16 +12835,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -14403,10 +12867,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14435,10 +12899,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -14533,28 +12997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14565,10 +13029,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -14577,16 +13041,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -14597,16 +13061,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -14629,10 +13093,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14661,10 +13125,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -14759,16 +13223,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14803,16 +13267,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -14823,16 +13287,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -14855,10 +13319,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14887,10 +13351,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -14985,16 +13449,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15029,16 +13493,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -15049,16 +13513,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -15081,10 +13545,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -15113,10 +13577,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -15211,28 +13675,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -15243,10 +13707,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -15255,16 +13719,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -15275,22 +13739,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -15307,22 +13771,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -15339,10 +13803,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -15437,28 +13901,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -16431,28 +14895,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -16463,10 +14927,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -16475,16 +14939,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -16495,22 +14959,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -16527,22 +14991,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -16559,10 +15023,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -16589,458 +15053,6 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>33</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17115,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17202,7 +15214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17277,16 +15289,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17356,6 +15368,650 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>83</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>83</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -17433,16 +16089,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17451,10 +16107,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17851,16 +16507,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17869,10 +16525,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18269,16 +16925,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18287,10 +16943,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18463,16 +17119,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18481,10 +17137,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18657,28 +17313,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19043,28 +17699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20037,28 +18693,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20423,28 +19079,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20873,28 +19529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21323,16 +19979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21341,10 +19997,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21613,16 +20269,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21631,10 +20287,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21903,28 +20559,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22289,28 +20945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22675,28 +21331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23125,28 +21781,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23575,28 +22231,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -24025,28 +22681,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24955,28 +23611,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -25405,28 +24061,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -26335,28 +24991,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -27265,28 +25921,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28195,28 +26851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29125,22 +27781,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29383,22 +28039,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29641,22 +28297,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29899,22 +28555,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30157,28 +28813,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30607,28 +29263,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31537,28 +30193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31987,28 +30643,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32341,28 +30997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32695,28 +31351,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32921,28 +31577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33147,28 +31803,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33501,28 +32157,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33855,28 +32511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34209,28 +32865,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34563,28 +33219,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34981,28 +33637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35911,28 +34567,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36329,16 +34985,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36347,10 +35003,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36779,16 +35435,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36797,10 +35453,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37229,28 +35885,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37647,28 +36303,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38065,28 +36721,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38483,28 +37139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38901,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39031,16 +37687,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39161,22 +37817,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39387,28 +38043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40317,22 +38973,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40543,28 +39199,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40801,28 +39457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41059,28 +39715,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41349,28 +40005,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41639,16 +40295,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41657,10 +40313,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41929,16 +40585,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41947,10 +40603,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -42219,28 +40875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42701,28 +41357,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43189,16 +41845,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43345,16 +42001,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -43363,10 +42019,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43673,16 +42329,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
